--- a/reports/evaluation_results/data_dictionary.xlsx
+++ b/reports/evaluation_results/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58270ca3e7134d2a/Documents/GitHub/Maciej_Sz_BEP/reports/evaluation_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{46F10D51-AE82-4091-BC6E-DE807E9D443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E5B44C-C6C5-4728-B907-74E9132C0ABE}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{46F10D51-AE82-4091-BC6E-DE807E9D443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266D66E6-3D2E-4E38-AD14-8AFAAC9DFE9A}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="795" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -591,16 +591,28 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89BB9D2C-D712-4648-B38B-DD4F4C2B65DD}" name="Table1" displayName="Table1" ref="A1:B59" totalsRowShown="0">
   <autoFilter ref="A1:B59" xr:uid="{89BB9D2C-D712-4648-B38B-DD4F4C2B65DD}">
     <filterColumn colId="0">
       <filters>
-        <filter val="patient.drug"/>
+        <filter val="openfda.application_number"/>
+        <filter val="openfda.brand_name"/>
+        <filter val="openfda.generic_name"/>
+        <filter val="openfda.manufacturer_name"/>
+        <filter val="openfda.nui"/>
+        <filter val="openfda.package_ndc"/>
+        <filter val="openfda.pharm_class_cs"/>
+        <filter val="openfda.pharm_class_epc"/>
+        <filter val="openfda.pharm_class_moa"/>
+        <filter val="openfda.pharm_class_pe"/>
+        <filter val="openfda.product_ndc"/>
+        <filter val="openfda.route"/>
+        <filter val="openfda.rxcui"/>
+        <filter val="openfda.spl_id"/>
+        <filter val="openfda.spl_set_id"/>
+        <filter val="openfda.substance_name"/>
+        <filter val="openfda.unii"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -1013,7 +1025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -1037,7 +1049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -1045,7 +1057,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>87</v>
       </c>
@@ -1053,7 +1065,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>89</v>
       </c>
@@ -1061,7 +1073,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1069,7 +1081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -1077,7 +1089,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -1085,7 +1097,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>99</v>
       </c>
@@ -1101,7 +1113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>101</v>
       </c>
@@ -1109,7 +1121,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1125,7 +1137,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>107</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>109</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>111</v>
       </c>
@@ -1149,7 +1161,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>

--- a/reports/evaluation_results/data_dictionary.xlsx
+++ b/reports/evaluation_results/data_dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58270ca3e7134d2a/Documents/GitHub/Maciej_Sz_BEP/reports/evaluation_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{46F10D51-AE82-4091-BC6E-DE807E9D443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{266D66E6-3D2E-4E38-AD14-8AFAAC9DFE9A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{46F10D51-AE82-4091-BC6E-DE807E9D443E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E127BB4-2FFB-47DF-BF23-6F2F98A89D9B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="795" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -591,31 +591,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{89BB9D2C-D712-4648-B38B-DD4F4C2B65DD}" name="Table1" displayName="Table1" ref="A1:B59" totalsRowShown="0">
-  <autoFilter ref="A1:B59" xr:uid="{89BB9D2C-D712-4648-B38B-DD4F4C2B65DD}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="openfda.application_number"/>
-        <filter val="openfda.brand_name"/>
-        <filter val="openfda.generic_name"/>
-        <filter val="openfda.manufacturer_name"/>
-        <filter val="openfda.nui"/>
-        <filter val="openfda.package_ndc"/>
-        <filter val="openfda.pharm_class_cs"/>
-        <filter val="openfda.pharm_class_epc"/>
-        <filter val="openfda.pharm_class_moa"/>
-        <filter val="openfda.pharm_class_pe"/>
-        <filter val="openfda.product_ndc"/>
-        <filter val="openfda.route"/>
-        <filter val="openfda.rxcui"/>
-        <filter val="openfda.spl_id"/>
-        <filter val="openfda.spl_set_id"/>
-        <filter val="openfda.substance_name"/>
-        <filter val="openfda.unii"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:B59" xr:uid="{89BB9D2C-D712-4648-B38B-DD4F4C2B65DD}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CE73C1BD-7551-4032-B81A-16A3E06B9499}" name="field_name" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{DB554969-FA26-4CD1-A07D-F8DC4EE8DF2D}" name="definition" dataDxfId="3"/>
@@ -959,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -977,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -985,7 +967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -993,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1161,12 +1143,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1174,12 +1156,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1187,7 +1169,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1203,7 +1185,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1211,17 +1193,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1229,7 +1211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1227,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>32</v>
       </c>
@@ -1253,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1261,7 +1243,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1277,7 +1259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1293,7 +1275,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -1301,7 +1283,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1309,7 +1291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1317,7 +1299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1325,7 +1307,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>52</v>
       </c>
@@ -1333,7 +1315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -1341,7 +1323,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -1349,7 +1331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1357,7 +1339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>60</v>
       </c>
@@ -1365,7 +1347,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -1373,7 +1355,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -1381,7 +1363,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -1389,7 +1371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -1397,7 +1379,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -1405,7 +1387,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
@@ -1413,7 +1395,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -1421,7 +1403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>76</v>
       </c>
